--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2012-2017)/工业企业营业收入.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2012-2017)/工业企业营业收入.xlsx
@@ -2466,7 +2466,7 @@
         <v>10.2</v>
       </c>
       <c r="BD4" t="n">
-        <v>174.6</v>
+        <v>128.2</v>
       </c>
       <c r="BE4" t="n">
         <v>722.1</v>
@@ -2484,7 +2484,7 @@
         <v>12.9</v>
       </c>
       <c r="BJ4" t="n">
-        <v>663.1000000000004</v>
+        <v>493.9000000000033</v>
       </c>
       <c r="BK4" t="n">
         <v>3365.7</v>
@@ -2547,7 +2547,7 @@
         <v>29.4</v>
       </c>
       <c r="CE4" t="n">
-        <v>38.10000000000014</v>
+        <v>10.40000000000027</v>
       </c>
       <c r="CF4" t="n">
         <v>2519.5</v>
@@ -2637,7 +2637,7 @@
         <v>4.4</v>
       </c>
       <c r="DI4" t="n">
-        <v>244.0999999999967</v>
+        <v>20.89999999999512</v>
       </c>
       <c r="DJ4" t="n">
         <v>19119.8</v>
@@ -2673,7 +2673,7 @@
         <v>24.6</v>
       </c>
       <c r="DU4" t="n">
-        <v>22.80000000000001</v>
+        <v>7.500000000000112</v>
       </c>
       <c r="DV4" t="n">
         <v>2024.3</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.599999999999</v>
+        <v>45.39999999999459</v>
       </c>
       <c r="C5" t="n">
         <v>15377.7</v>
@@ -2824,7 +2824,7 @@
         <v>11.8</v>
       </c>
       <c r="E5" t="n">
-        <v>119.9000000000001</v>
+        <v>6.200000000000543</v>
       </c>
       <c r="F5" t="n">
         <v>3728.9</v>
@@ -2842,7 +2842,7 @@
         <v>10.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.800000000000001</v>
+        <v>0.3000000000000009</v>
       </c>
       <c r="L5" t="n">
         <v>13.5</v>
@@ -2851,7 +2851,7 @@
         <v>48.4</v>
       </c>
       <c r="N5" t="n">
-        <v>642.8000000000029</v>
+        <v>113.2000000000043</v>
       </c>
       <c r="O5" t="n">
         <v>27079.4</v>
@@ -2860,7 +2860,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>481.7999999999984</v>
+        <v>47.09999999999388</v>
       </c>
       <c r="R5" t="n">
         <v>38749.2</v>
@@ -2869,7 +2869,7 @@
         <v>16.7</v>
       </c>
       <c r="T5" t="n">
-        <v>81.49999999999955</v>
+        <v>70.69999999999754</v>
       </c>
       <c r="U5" t="n">
         <v>3377.8</v>
@@ -2878,7 +2878,7 @@
         <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>335.900000000001</v>
+        <v>96.69999999999661</v>
       </c>
       <c r="X5" t="n">
         <v>11709.9</v>
@@ -2887,7 +2887,7 @@
         <v>11.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>149.1000000000004</v>
+        <v>100.300000000002</v>
       </c>
       <c r="AA5" t="n">
         <v>3193</v>
@@ -2896,7 +2896,7 @@
         <v>10.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>96</v>
+        <v>12.00000000000091</v>
       </c>
       <c r="AD5" t="n">
         <v>3536.2</v>
@@ -2905,7 +2905,7 @@
         <v>13.3</v>
       </c>
       <c r="AF5" t="n">
-        <v>10219.99999999997</v>
+        <v>2418.799999999816</v>
       </c>
       <c r="AG5" t="n">
         <v>488577.5</v>
@@ -2923,7 +2923,7 @@
         <v>19.8</v>
       </c>
       <c r="AL5" t="n">
-        <v>114.9</v>
+        <v>13.2</v>
       </c>
       <c r="AM5" t="n">
         <v>497.3</v>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>213.400000000001</v>
+        <v>202.600000000009</v>
       </c>
       <c r="AP5" t="n">
         <v>6882.4</v>
@@ -2941,7 +2941,7 @@
         <v>11.3</v>
       </c>
       <c r="AR5" t="n">
-        <v>372.8000000000047</v>
+        <v>140.7000000000062</v>
       </c>
       <c r="AS5" t="n">
         <v>23784.3</v>
@@ -2950,7 +2950,7 @@
         <v>17.9</v>
       </c>
       <c r="AU5" t="n">
-        <v>102.9000000000001</v>
+        <v>27.29999999999974</v>
       </c>
       <c r="AV5" t="n">
         <v>2667.6</v>
@@ -2959,7 +2959,7 @@
         <v>13.7</v>
       </c>
       <c r="AX5" t="n">
-        <v>106.2</v>
+        <v>21.99999999999996</v>
       </c>
       <c r="AY5" t="n">
         <v>5687.7</v>
@@ -2968,7 +2968,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BA5" t="n">
-        <v>208.300000000002</v>
+        <v>77.40000000000421</v>
       </c>
       <c r="BB5" t="n">
         <v>13416.1</v>
@@ -3004,7 +3004,7 @@
         <v>-0.3</v>
       </c>
       <c r="BM5" t="n">
-        <v>240.4000000000001</v>
+        <v>36.0000000000005</v>
       </c>
       <c r="BN5" t="n">
         <v>11898.1</v>
@@ -3022,7 +3022,7 @@
         <v>10.7</v>
       </c>
       <c r="BS5" t="n">
-        <v>189.6000000000013</v>
+        <v>82.8000000000057</v>
       </c>
       <c r="BT5" t="n">
         <v>22541.3</v>
@@ -3031,7 +3031,7 @@
         <v>6.1</v>
       </c>
       <c r="BV5" t="n">
-        <v>914.6999999999971</v>
+        <v>38.69999999999169</v>
       </c>
       <c r="BW5" t="n">
         <v>30491.9</v>
@@ -3040,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="BY5" t="n">
-        <v>162.099999999999</v>
+        <v>22.69999999999891</v>
       </c>
       <c r="BZ5" t="n">
         <v>5966.8</v>
@@ -3049,7 +3049,7 @@
         <v>6.7</v>
       </c>
       <c r="CB5" t="n">
-        <v>240.1000000000022</v>
+        <v>58.70000000000621</v>
       </c>
       <c r="CC5" t="n">
         <v>16983.5</v>
@@ -3058,7 +3058,7 @@
         <v>28.3</v>
       </c>
       <c r="CE5" t="n">
-        <v>32.2999999999995</v>
+        <v>1.09999999999869</v>
       </c>
       <c r="CF5" t="n">
         <v>3170.8</v>
@@ -3067,7 +3067,7 @@
         <v>33.1</v>
       </c>
       <c r="CH5" t="n">
-        <v>257.2000000000012</v>
+        <v>94.30000000000339</v>
       </c>
       <c r="CI5" t="n">
         <v>16668.1</v>
@@ -3076,7 +3076,7 @@
         <v>9.5</v>
       </c>
       <c r="CK5" t="n">
-        <v>245.8999999999978</v>
+        <v>43.49999999999351</v>
       </c>
       <c r="CL5" t="n">
         <v>9320.5</v>
@@ -3085,7 +3085,7 @@
         <v>7.6</v>
       </c>
       <c r="CN5" t="n">
-        <v>1268.099999999999</v>
+        <v>672.8999999999946</v>
       </c>
       <c r="CO5" t="n">
         <v>40375</v>
@@ -3094,7 +3094,7 @@
         <v>14</v>
       </c>
       <c r="CQ5" t="n">
-        <v>500.8999999999983</v>
+        <v>75.2999999999943</v>
       </c>
       <c r="CR5" t="n">
         <v>19991.9</v>
@@ -3103,7 +3103,7 @@
         <v>12.3</v>
       </c>
       <c r="CT5" t="n">
-        <v>72.60000000000014</v>
+        <v>7.2000000000005</v>
       </c>
       <c r="CU5" t="n">
         <v>6365.8</v>
@@ -3112,7 +3112,7 @@
         <v>13.6</v>
       </c>
       <c r="CW5" t="n">
-        <v>231.4000000000001</v>
+        <v>69.99999999999994</v>
       </c>
       <c r="CX5" t="n">
         <v>7800.6</v>
@@ -3121,7 +3121,7 @@
         <v>9.6</v>
       </c>
       <c r="CZ5" t="n">
-        <v>86.99999999999997</v>
+        <v>14.39999999999995</v>
       </c>
       <c r="DA5" t="n">
         <v>401.9</v>
@@ -3130,7 +3130,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="DC5" t="n">
-        <v>442.8000000000011</v>
+        <v>135.5999999999967</v>
       </c>
       <c r="DD5" t="n">
         <v>15613.6</v>
@@ -3139,7 +3139,7 @@
         <v>11.2</v>
       </c>
       <c r="DF5" t="n">
-        <v>335.099999999999</v>
+        <v>56.69999999999939</v>
       </c>
       <c r="DG5" t="n">
         <v>6301.4</v>
@@ -3148,7 +3148,7 @@
         <v>4.9</v>
       </c>
       <c r="DI5" t="n">
-        <v>498.0000000000027</v>
+        <v>63.30000000001468</v>
       </c>
       <c r="DJ5" t="n">
         <v>24896.5</v>
@@ -3157,7 +3157,7 @@
         <v>12.8</v>
       </c>
       <c r="DL5" t="n">
-        <v>63.90000000000009</v>
+        <v>16.69999999999993</v>
       </c>
       <c r="DM5" t="n">
         <v>2115.1</v>
@@ -3166,7 +3166,7 @@
         <v>6.9</v>
       </c>
       <c r="DO5" t="n">
-        <v>182.6999999999991</v>
+        <v>44.89999999999529</v>
       </c>
       <c r="DP5" t="n">
         <v>9865.200000000001</v>
@@ -3175,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="DR5" t="n">
-        <v>69.10000000000218</v>
+        <v>13.50000000001092</v>
       </c>
       <c r="DS5" t="n">
         <v>30258.4</v>
@@ -3184,7 +3184,7 @@
         <v>23.3</v>
       </c>
       <c r="DU5" t="n">
-        <v>50.69999999999982</v>
+        <v>5.399999999999478</v>
       </c>
       <c r="DV5" t="n">
         <v>2587.8</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2998.700000000001</v>
+        <v>2515.300000000015</v>
       </c>
       <c r="C6" t="n">
         <v>19236.8</v>
@@ -3335,7 +3335,7 @@
         <v>12.9</v>
       </c>
       <c r="E6" t="n">
-        <v>750.3000000000002</v>
+        <v>498.0999999999988</v>
       </c>
       <c r="F6" t="n">
         <v>4734.3</v>
@@ -3344,7 +3344,7 @@
         <v>14.7</v>
       </c>
       <c r="H6" t="n">
-        <v>18.89999999999989</v>
+        <v>16.49999999999913</v>
       </c>
       <c r="I6" t="n">
         <v>1250.5</v>
@@ -3353,7 +3353,7 @@
         <v>10.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3999999999999979</v>
+        <v>0.09999999999999704</v>
       </c>
       <c r="L6" t="n">
         <v>17.9</v>
@@ -3362,7 +3362,7 @@
         <v>64.2</v>
       </c>
       <c r="N6" t="n">
-        <v>5577.999999999996</v>
+        <v>4330.799999999981</v>
       </c>
       <c r="O6" t="n">
         <v>33564.9</v>
@@ -3371,7 +3371,7 @@
         <v>9.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>7239.5</v>
+        <v>6181.700000000015</v>
       </c>
       <c r="R6" t="n">
         <v>47515.4</v>
@@ -3380,7 +3380,7 @@
         <v>16.2</v>
       </c>
       <c r="T6" t="n">
-        <v>691.4000000000001</v>
+        <v>381.600000000005</v>
       </c>
       <c r="U6" t="n">
         <v>4246.5</v>
@@ -3389,7 +3389,7 @@
         <v>14.8</v>
       </c>
       <c r="W6" t="n">
-        <v>2262.799999999999</v>
+        <v>1278.000000000001</v>
       </c>
       <c r="X6" t="n">
         <v>14636.7</v>
@@ -3398,7 +3398,7 @@
         <v>12.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>690.1999999999998</v>
+        <v>166.9999999999959</v>
       </c>
       <c r="AA6" t="n">
         <v>4036.3</v>
@@ -3407,7 +3407,7 @@
         <v>10.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>716.8000000000002</v>
+        <v>458.7999999999988</v>
       </c>
       <c r="AD6" t="n">
         <v>4436.6</v>
@@ -3416,7 +3416,7 @@
         <v>13.9</v>
       </c>
       <c r="AF6" t="n">
-        <v>94914.09999999998</v>
+        <v>69636.50000000041</v>
       </c>
       <c r="AG6" t="n">
         <v>605789.5</v>
@@ -3434,7 +3434,7 @@
         <v>20.1</v>
       </c>
       <c r="AL6" t="n">
-        <v>111.0999999999999</v>
+        <v>71.49999999999989</v>
       </c>
       <c r="AM6" t="n">
         <v>745.2</v>
@@ -3443,7 +3443,7 @@
         <v>7.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>1373.900000000001</v>
+        <v>536.499999999985</v>
       </c>
       <c r="AP6" t="n">
         <v>8605.6</v>
@@ -3452,7 +3452,7 @@
         <v>11.9</v>
       </c>
       <c r="AR6" t="n">
-        <v>4484.099999999999</v>
+        <v>3689.199999999977</v>
       </c>
       <c r="AS6" t="n">
         <v>29621.3</v>
@@ -3461,7 +3461,7 @@
         <v>18.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>583.3000000000002</v>
+        <v>285.1000000000004</v>
       </c>
       <c r="AV6" t="n">
         <v>3336.4</v>
@@ -3470,7 +3470,7 @@
         <v>12.3</v>
       </c>
       <c r="AX6" t="n">
-        <v>1261.5</v>
+        <v>1089.3</v>
       </c>
       <c r="AY6" t="n">
         <v>7160.5</v>
@@ -3479,7 +3479,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="BA6" t="n">
-        <v>2765.399999999998</v>
+        <v>2324.899999999984</v>
       </c>
       <c r="BB6" t="n">
         <v>16675.2</v>
@@ -3488,7 +3488,7 @@
         <v>10.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>188</v>
+        <v>108.0000000000004</v>
       </c>
       <c r="BE6" t="n">
         <v>1139.1</v>
@@ -3497,7 +3497,7 @@
         <v>10.7</v>
       </c>
       <c r="BG6" t="n">
-        <v>6126</v>
+        <v>4131.600000000002</v>
       </c>
       <c r="BH6" t="n">
         <v>42342.1</v>
@@ -3506,7 +3506,7 @@
         <v>12.1</v>
       </c>
       <c r="BJ6" t="n">
-        <v>766.4000000000005</v>
+        <v>117.5000000000027</v>
       </c>
       <c r="BK6" t="n">
         <v>4939.8</v>
@@ -3515,7 +3515,7 @@
         <v>-2.3</v>
       </c>
       <c r="BM6" t="n">
-        <v>1918.799999999999</v>
+        <v>1468.199999999998</v>
       </c>
       <c r="BN6" t="n">
         <v>14463.5</v>
@@ -3524,7 +3524,7 @@
         <v>40.5</v>
       </c>
       <c r="BP6" t="n">
-        <v>449.5999999999999</v>
+        <v>231.1999999999985</v>
       </c>
       <c r="BQ6" t="n">
         <v>3452.8</v>
@@ -3533,7 +3533,7 @@
         <v>13.8</v>
       </c>
       <c r="BS6" t="n">
-        <v>408.6999999999971</v>
+        <v>56.19999999999339</v>
       </c>
       <c r="BT6" t="n">
         <v>27373.1</v>
@@ -3542,7 +3542,7 @@
         <v>6.8</v>
       </c>
       <c r="BV6" t="n">
-        <v>5940.300000000003</v>
+        <v>4033.500000000025</v>
       </c>
       <c r="BW6" t="n">
         <v>38548.7</v>
@@ -3551,7 +3551,7 @@
         <v>11.8</v>
       </c>
       <c r="BY6" t="n">
-        <v>1292.9</v>
+        <v>993.0000000000041</v>
       </c>
       <c r="BZ6" t="n">
         <v>7475.9</v>
@@ -3560,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="CB6" t="n">
-        <v>2835.5</v>
+        <v>2328.599999999982</v>
       </c>
       <c r="CC6" t="n">
         <v>20539.1</v>
@@ -3569,7 +3569,7 @@
         <v>26.1</v>
       </c>
       <c r="CE6" t="n">
-        <v>558.8000000000002</v>
+        <v>460.8000000000029</v>
       </c>
       <c r="CF6" t="n">
         <v>3799.3</v>
@@ -3578,7 +3578,7 @@
         <v>28.6</v>
       </c>
       <c r="CH6" t="n">
-        <v>3472</v>
+        <v>2931.899999999989</v>
       </c>
       <c r="CI6" t="n">
         <v>20642.5</v>
@@ -3587,7 +3587,7 @@
         <v>9.5</v>
       </c>
       <c r="CK6" t="n">
-        <v>2004.200000000001</v>
+        <v>1324.200000000015</v>
       </c>
       <c r="CL6" t="n">
         <v>11611.7</v>
@@ -3596,7 +3596,7 @@
         <v>7.9</v>
       </c>
       <c r="CN6" t="n">
-        <v>7698.199999999997</v>
+        <v>3518.600000000009</v>
       </c>
       <c r="CO6" t="n">
         <v>50538.2</v>
@@ -3605,7 +3605,7 @@
         <v>14.4</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3994.5</v>
+        <v>2629.300000000014</v>
       </c>
       <c r="CR6" t="n">
         <v>25015.4</v>
@@ -3614,7 +3614,7 @@
         <v>12.7</v>
       </c>
       <c r="CT6" t="n">
-        <v>1172.099999999999</v>
+        <v>1045.199999999998</v>
       </c>
       <c r="CU6" t="n">
         <v>7821.2</v>
@@ -3623,7 +3623,7 @@
         <v>13.9</v>
       </c>
       <c r="CW6" t="n">
-        <v>1486.9</v>
+        <v>964.8</v>
       </c>
       <c r="CX6" t="n">
         <v>9708.1</v>
@@ -3632,7 +3632,7 @@
         <v>10.4</v>
       </c>
       <c r="CZ6" t="n">
-        <v>83.39999999999998</v>
+        <v>40.20000000000013</v>
       </c>
       <c r="DA6" t="n">
         <v>525.3</v>
@@ -3641,7 +3641,7 @@
         <v>-0.5</v>
       </c>
       <c r="DC6" t="n">
-        <v>3270.899999999998</v>
+        <v>1960.5</v>
       </c>
       <c r="DD6" t="n">
         <v>19647.4</v>
@@ -3650,7 +3650,7 @@
         <v>11.7</v>
       </c>
       <c r="DF6" t="n">
-        <v>1302.300000000001</v>
+        <v>379.5000000000045</v>
       </c>
       <c r="DG6" t="n">
         <v>8083</v>
@@ -3659,7 +3659,7 @@
         <v>5.8</v>
       </c>
       <c r="DI6" t="n">
-        <v>5298.399999999998</v>
+        <v>4378.099999999969</v>
       </c>
       <c r="DJ6" t="n">
         <v>31271.3</v>
@@ -3668,7 +3668,7 @@
         <v>13.1</v>
       </c>
       <c r="DL6" t="n">
-        <v>465.9000000000001</v>
+        <v>328.3000000000002</v>
       </c>
       <c r="DM6" t="n">
         <v>2680.4</v>
@@ -3677,7 +3677,7 @@
         <v>8.1</v>
       </c>
       <c r="DO6" t="n">
-        <v>1934.4</v>
+        <v>1548.100000000014</v>
       </c>
       <c r="DP6" t="n">
         <v>12148.5</v>
@@ -3686,7 +3686,7 @@
         <v>9.4</v>
       </c>
       <c r="DR6" t="n">
-        <v>5257.899999999998</v>
+        <v>5120.499999999967</v>
       </c>
       <c r="DS6" t="n">
         <v>36905.6</v>
@@ -3695,7 +3695,7 @@
         <v>23.1</v>
       </c>
       <c r="DU6" t="n">
-        <v>509.4000000000001</v>
+        <v>397.5000000000012</v>
       </c>
       <c r="DV6" t="n">
         <v>3214.8</v>
@@ -3855,7 +3855,7 @@
         <v>14.8</v>
       </c>
       <c r="H7" t="n">
-        <v>196.1999999999998</v>
+        <v>124.2000000000014</v>
       </c>
       <c r="I7" t="n">
         <v>1459.9</v>
@@ -3864,7 +3864,7 @@
         <v>8.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5000000000000022</v>
+        <v>0.1000000000000043</v>
       </c>
       <c r="L7" t="n">
         <v>21.9</v>
@@ -3882,7 +3882,7 @@
         <v>8.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>7091.5</v>
+        <v>333.7999999999984</v>
       </c>
       <c r="R7" t="n">
         <v>55448.1</v>
@@ -3891,7 +3891,7 @@
         <v>15.2</v>
       </c>
       <c r="T7" t="n">
-        <v>649.6000000000004</v>
+        <v>39.69999999999982</v>
       </c>
       <c r="U7" t="n">
         <v>5034.6</v>
@@ -3909,7 +3909,7 @@
         <v>11.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>680.6000000000004</v>
+        <v>139.5000000000009</v>
       </c>
       <c r="AA7" t="n">
         <v>4788</v>
@@ -3936,7 +3936,7 @@
         <v>13.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>348.1000000000004</v>
+        <v>322.1000000000022</v>
       </c>
       <c r="AJ7" t="n">
         <v>2470.6</v>
@@ -3972,7 +3972,7 @@
         <v>17.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>560.3999999999996</v>
+        <v>79.99999999999955</v>
       </c>
       <c r="AV7" t="n">
         <v>3911.6</v>
@@ -4017,7 +4017,7 @@
         <v>12.1</v>
       </c>
       <c r="BJ7" t="n">
-        <v>723.3999999999996</v>
+        <v>55.79999999999569</v>
       </c>
       <c r="BK7" t="n">
         <v>5764.6</v>
@@ -4044,7 +4044,7 @@
         <v>13.4</v>
       </c>
       <c r="BS7" t="n">
-        <v>244.5000000000027</v>
+        <v>25.40000000000691</v>
       </c>
       <c r="BT7" t="n">
         <v>32655.2</v>
@@ -4062,7 +4062,7 @@
         <v>12</v>
       </c>
       <c r="BY7" t="n">
-        <v>1283.5</v>
+        <v>152.6999999999989</v>
       </c>
       <c r="BZ7" t="n">
         <v>8865.5</v>
@@ -4080,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="CE7" t="n">
-        <v>546.0999999999999</v>
+        <v>19.59999999999923</v>
       </c>
       <c r="CF7" t="n">
         <v>4397.4</v>
@@ -4161,7 +4161,7 @@
         <v>11.2</v>
       </c>
       <c r="DF7" t="n">
-        <v>1257.4</v>
+        <v>290.199999999998</v>
       </c>
       <c r="DG7" t="n">
         <v>9452.299999999999</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2912.200000000001</v>
+        <v>2667.000000000005</v>
       </c>
       <c r="C8" t="n">
         <v>25771</v>
@@ -4375,7 +4375,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>2.300000000000001</v>
+        <v>1.499999999999987</v>
       </c>
       <c r="L8" t="n">
         <v>26.3</v>
@@ -4393,7 +4393,7 @@
         <v>7.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>6387.599999999999</v>
+        <v>5720.000000000003</v>
       </c>
       <c r="R8" t="n">
         <v>63173.9</v>
@@ -4411,7 +4411,7 @@
         <v>15.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1990.200000000001</v>
+        <v>1898.999999999997</v>
       </c>
       <c r="X8" t="n">
         <v>19602.6</v>
@@ -4438,7 +4438,7 @@
         <v>12.3</v>
       </c>
       <c r="AF8" t="n">
-        <v>93212.09999999998</v>
+        <v>83623.2999999997</v>
       </c>
       <c r="AG8" t="n">
         <v>817385.7</v>
@@ -4456,7 +4456,7 @@
         <v>17.4</v>
       </c>
       <c r="AL8" t="n">
-        <v>15.40000000000012</v>
+        <v>3.399999999999823</v>
       </c>
       <c r="AM8" t="n">
         <v>1013</v>
@@ -4465,7 +4465,7 @@
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>70.900000000001</v>
+        <v>1.600000000003092</v>
       </c>
       <c r="AP8" t="n">
         <v>11669.9</v>
@@ -4474,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>3745.5</v>
+        <v>3492.699999999988</v>
       </c>
       <c r="AS8" t="n">
         <v>40005.7</v>
@@ -4483,7 +4483,7 @@
         <v>17.2</v>
       </c>
       <c r="AU8" t="n">
-        <v>410.9000000000005</v>
+        <v>250.9000000000013</v>
       </c>
       <c r="AV8" t="n">
         <v>4471.6</v>
@@ -4492,7 +4492,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AX8" t="n">
-        <v>1280.799999999999</v>
+        <v>1180.399999999999</v>
       </c>
       <c r="AY8" t="n">
         <v>9768.299999999999</v>
@@ -4501,7 +4501,7 @@
         <v>7.7</v>
       </c>
       <c r="BA8" t="n">
-        <v>2381.900000000001</v>
+        <v>2227.499999999993</v>
       </c>
       <c r="BB8" t="n">
         <v>22506.6</v>
@@ -4519,7 +4519,7 @@
         <v>11.2</v>
       </c>
       <c r="BG8" t="n">
-        <v>679.9000000000024</v>
+        <v>10.30000000000032</v>
       </c>
       <c r="BH8" t="n">
         <v>56224.9</v>
@@ -4537,7 +4537,7 @@
         <v>0.3</v>
       </c>
       <c r="BM8" t="n">
-        <v>1972</v>
+        <v>1736.399999999992</v>
       </c>
       <c r="BN8" t="n">
         <v>19358</v>
@@ -4546,7 +4546,7 @@
         <v>36.4</v>
       </c>
       <c r="BP8" t="n">
-        <v>346.0999999999999</v>
+        <v>232.0999999999999</v>
       </c>
       <c r="BQ8" t="n">
         <v>4476.1</v>
@@ -4555,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="BS8" t="n">
-        <v>4591.699999999997</v>
+        <v>4051.899999999978</v>
       </c>
       <c r="BT8" t="n">
         <v>38108.1</v>
@@ -4564,7 +4564,7 @@
         <v>7.3</v>
       </c>
       <c r="BV8" t="n">
-        <v>5981.599999999999</v>
+        <v>5253.599999999999</v>
       </c>
       <c r="BW8" t="n">
         <v>52155.8</v>
@@ -4582,7 +4582,7 @@
         <v>6.5</v>
       </c>
       <c r="CB8" t="n">
-        <v>2493.200000000001</v>
+        <v>1991.200000000001</v>
       </c>
       <c r="CC8" t="n">
         <v>27543.3</v>
@@ -4600,7 +4600,7 @@
         <v>23.7</v>
       </c>
       <c r="CH8" t="n">
-        <v>3351.399999999998</v>
+        <v>3300.99999999999</v>
       </c>
       <c r="CI8" t="n">
         <v>27852.7</v>
@@ -4618,7 +4618,7 @@
         <v>6.8</v>
       </c>
       <c r="CN8" t="n">
-        <v>1102.500000000007</v>
+        <v>109.9000000000012</v>
       </c>
       <c r="CO8" t="n">
         <v>68508.89999999999</v>
@@ -4627,7 +4627,7 @@
         <v>14</v>
       </c>
       <c r="CQ8" t="n">
-        <v>4013.800000000003</v>
+        <v>3667.400000000007</v>
       </c>
       <c r="CR8" t="n">
         <v>33629.7</v>
@@ -4636,7 +4636,7 @@
         <v>11.1</v>
       </c>
       <c r="CT8" t="n">
-        <v>1158.5</v>
+        <v>1023.299999999996</v>
       </c>
       <c r="CU8" t="n">
         <v>10540.9</v>
@@ -4645,7 +4645,7 @@
         <v>14</v>
       </c>
       <c r="CW8" t="n">
-        <v>1572.4</v>
+        <v>1164.799999999996</v>
       </c>
       <c r="CX8" t="n">
         <v>12988</v>
@@ -4654,7 +4654,7 @@
         <v>9.4</v>
       </c>
       <c r="CZ8" t="n">
-        <v>8.299999999999955</v>
+        <v>0.199999999999819</v>
       </c>
       <c r="DA8" t="n">
         <v>689.8</v>
@@ -4663,7 +4663,7 @@
         <v>-1.1</v>
       </c>
       <c r="DC8" t="n">
-        <v>3011.399999999998</v>
+        <v>2830.599999999981</v>
       </c>
       <c r="DD8" t="n">
         <v>26627.3</v>
@@ -4672,7 +4672,7 @@
         <v>10.2</v>
       </c>
       <c r="DF8" t="n">
-        <v>1186.5</v>
+        <v>606.100000000004</v>
       </c>
       <c r="DG8" t="n">
         <v>10885.7</v>
@@ -4681,7 +4681,7 @@
         <v>6.7</v>
       </c>
       <c r="DI8" t="n">
-        <v>5164.800000000003</v>
+        <v>4537.999999999996</v>
       </c>
       <c r="DJ8" t="n">
         <v>42862.1</v>
@@ -4690,7 +4690,7 @@
         <v>11.6</v>
       </c>
       <c r="DL8" t="n">
-        <v>439.0999999999999</v>
+        <v>425.9000000000011</v>
       </c>
       <c r="DM8" t="n">
         <v>3599.3</v>
@@ -4699,7 +4699,7 @@
         <v>5.4</v>
       </c>
       <c r="DO8" t="n">
-        <v>1237.099999999999</v>
+        <v>605.499999999995</v>
       </c>
       <c r="DP8" t="n">
         <v>16453.6</v>
@@ -4708,7 +4708,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DR8" t="n">
-        <v>4674.400000000001</v>
+        <v>3916.79999999998</v>
       </c>
       <c r="DS8" t="n">
         <v>49743.8</v>
@@ -4717,7 +4717,7 @@
         <v>22.3</v>
       </c>
       <c r="DU8" t="n">
-        <v>516.3999999999996</v>
+        <v>418.7999999999992</v>
       </c>
       <c r="DV8" t="n">
         <v>4341.7</v>
@@ -4868,7 +4868,7 @@
         <v>10.8</v>
       </c>
       <c r="E9" t="n">
-        <v>744.8999999999996</v>
+        <v>683.3000000000011</v>
       </c>
       <c r="F9" t="n">
         <v>7355.6</v>
@@ -4877,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>152</v>
+        <v>48.79999999999917</v>
       </c>
       <c r="I9" t="n">
         <v>1901.2</v>
@@ -4886,7 +4886,7 @@
         <v>7.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.099999999999997</v>
+        <v>0.299999999999998</v>
       </c>
       <c r="L9" t="n">
         <v>31</v>
@@ -4895,7 +4895,7 @@
         <v>71.3</v>
       </c>
       <c r="N9" t="n">
-        <v>5343.099999999999</v>
+        <v>5239.099999999999</v>
       </c>
       <c r="O9" t="n">
         <v>51315.3</v>
@@ -4904,7 +4904,7 @@
         <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>6282.400000000001</v>
+        <v>228.5999999999995</v>
       </c>
       <c r="R9" t="n">
         <v>70600.60000000001</v>
@@ -4922,7 +4922,7 @@
         <v>15.7</v>
       </c>
       <c r="W9" t="n">
-        <v>1961.200000000001</v>
+        <v>16.60000000000196</v>
       </c>
       <c r="X9" t="n">
         <v>21889.9</v>
@@ -4931,7 +4931,7 @@
         <v>12.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>658.8999999999996</v>
+        <v>498.5000000000018</v>
       </c>
       <c r="AA9" t="n">
         <v>6253.8</v>
@@ -4940,7 +4940,7 @@
         <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>713.5</v>
+        <v>655.0999999999985</v>
       </c>
       <c r="AD9" t="n">
         <v>6785.2</v>
@@ -4949,7 +4949,7 @@
         <v>11.2</v>
       </c>
       <c r="AF9" t="n">
-        <v>88602.69999999995</v>
+        <v>185.0000000001164</v>
       </c>
       <c r="AG9" t="n">
         <v>921038.2</v>
@@ -4967,7 +4967,7 @@
         <v>18.7</v>
       </c>
       <c r="AL9" t="n">
-        <v>115.5</v>
+        <v>77.90000000000013</v>
       </c>
       <c r="AM9" t="n">
         <v>1162.9</v>
@@ -4976,7 +4976,7 @@
         <v>10.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>1304.200000000001</v>
+        <v>1228.499999999991</v>
       </c>
       <c r="AP9" t="n">
         <v>13260.9</v>
@@ -5039,7 +5039,7 @@
         <v>12.1</v>
       </c>
       <c r="BJ9" t="n">
-        <v>715.6000000000004</v>
+        <v>274.3999999999996</v>
       </c>
       <c r="BK9" t="n">
         <v>7500.2</v>
@@ -5066,7 +5066,7 @@
         <v>15</v>
       </c>
       <c r="BS9" t="n">
-        <v>4397.100000000006</v>
+        <v>49.90000000001146</v>
       </c>
       <c r="BT9" t="n">
         <v>43117.7</v>
@@ -5075,7 +5075,7 @@
         <v>7.5</v>
       </c>
       <c r="BV9" t="n">
-        <v>5960.599999999999</v>
+        <v>161</v>
       </c>
       <c r="BW9" t="n">
         <v>58823.5</v>
@@ -5084,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="BY9" t="n">
-        <v>1237.299999999999</v>
+        <v>784.0999999999948</v>
       </c>
       <c r="BZ9" t="n">
         <v>11572.4</v>
@@ -5102,7 +5102,7 @@
         <v>25.4</v>
       </c>
       <c r="CE9" t="n">
-        <v>547.4000000000005</v>
+        <v>481.4000000000005</v>
       </c>
       <c r="CF9" t="n">
         <v>5673.5</v>
@@ -5120,7 +5120,7 @@
         <v>7.3</v>
       </c>
       <c r="CK9" t="n">
-        <v>2000.600000000002</v>
+        <v>1929.00000000001</v>
       </c>
       <c r="CL9" t="n">
         <v>17859.3</v>
@@ -5129,7 +5129,7 @@
         <v>5.8</v>
       </c>
       <c r="CN9" t="n">
-        <v>8363.399999999994</v>
+        <v>6434.899999999981</v>
       </c>
       <c r="CO9" t="n">
         <v>78800.60000000001</v>
@@ -5165,7 +5165,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CZ9" t="n">
-        <v>680.8000000000001</v>
+        <v>663.8000000000005</v>
       </c>
       <c r="DA9" t="n">
         <v>790.7</v>
@@ -5183,7 +5183,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="DF9" t="n">
-        <v>1147.6</v>
+        <v>251.2999999999979</v>
       </c>
       <c r="DG9" t="n">
         <v>12144.9</v>
@@ -5397,7 +5397,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.400000000000004</v>
       </c>
       <c r="L10" t="n">
         <v>35.6</v>
@@ -5424,7 +5424,7 @@
         <v>14.8</v>
       </c>
       <c r="T10" t="n">
-        <v>303.3000000000002</v>
+        <v>266.0999999999958</v>
       </c>
       <c r="U10" t="n">
         <v>7363.3</v>
@@ -5433,7 +5433,7 @@
         <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1844</v>
+        <v>1827.399999999998</v>
       </c>
       <c r="X10" t="n">
         <v>24294.6</v>
@@ -5442,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>632.1000000000004</v>
+        <v>13.30000000000018</v>
       </c>
       <c r="AA10" t="n">
         <v>6927.4</v>
@@ -5460,7 +5460,7 @@
         <v>11.1</v>
       </c>
       <c r="AF10" t="n">
-        <v>81206.90000000002</v>
+        <v>81021.89999999991</v>
       </c>
       <c r="AG10" t="n">
         <v>1019145.1</v>
@@ -5478,7 +5478,7 @@
         <v>17.6</v>
       </c>
       <c r="AL10" t="n">
-        <v>97.59999999999991</v>
+        <v>8.900000000000034</v>
       </c>
       <c r="AM10" t="n">
         <v>1241.5</v>
@@ -5487,7 +5487,7 @@
         <v>6.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>1240.6</v>
+        <v>7.299999999999955</v>
       </c>
       <c r="AP10" t="n">
         <v>14745.2</v>
@@ -5496,7 +5496,7 @@
         <v>10.6</v>
       </c>
       <c r="AR10" t="n">
-        <v>4054.699999999997</v>
+        <v>2606.300000000001</v>
       </c>
       <c r="AS10" t="n">
         <v>49277.8</v>
@@ -5505,7 +5505,7 @@
         <v>17.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>49.69999999999982</v>
+        <v>43.30000000000178</v>
       </c>
       <c r="AV10" t="n">
         <v>5419.1</v>
@@ -5523,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="BA10" t="n">
-        <v>17.50000000000318</v>
+        <v>0.7000000000111832</v>
       </c>
       <c r="BB10" t="n">
         <v>27726.8</v>
@@ -5532,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.899999999999892</v>
+        <v>0.899999999999892</v>
       </c>
       <c r="BE10" t="n">
         <v>2010.2</v>
@@ -5568,7 +5568,7 @@
         <v>32.9</v>
       </c>
       <c r="BP10" t="n">
-        <v>99.49999999999909</v>
+        <v>27.49999999999705</v>
       </c>
       <c r="BQ10" t="n">
         <v>5370.2</v>
@@ -5577,7 +5577,7 @@
         <v>15</v>
       </c>
       <c r="BS10" t="n">
-        <v>383.6999999999898</v>
+        <v>283.899999999967</v>
       </c>
       <c r="BT10" t="n">
         <v>48023.4</v>
@@ -5586,7 +5586,7 @@
         <v>7.9</v>
       </c>
       <c r="BV10" t="n">
-        <v>4275.900000000001</v>
+        <v>3953.900000000001</v>
       </c>
       <c r="BW10" t="n">
         <v>65664.60000000001</v>
@@ -5595,7 +5595,7 @@
         <v>12.3</v>
       </c>
       <c r="BY10" t="n">
-        <v>1049.200000000001</v>
+        <v>38.50000000000398</v>
       </c>
       <c r="BZ10" t="n">
         <v>12895.8</v>
@@ -5622,7 +5622,7 @@
         <v>22.6</v>
       </c>
       <c r="CH10" t="n">
-        <v>2300.700000000001</v>
+        <v>1914.299999999993</v>
       </c>
       <c r="CI10" t="n">
         <v>34742.5</v>
@@ -5640,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="CN10" t="n">
-        <v>7711.699999999997</v>
+        <v>450.8000000000102</v>
       </c>
       <c r="CO10" t="n">
         <v>87919</v>
@@ -5658,7 +5658,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CT10" t="n">
-        <v>910.5</v>
+        <v>792.899999999996</v>
       </c>
       <c r="CU10" t="n">
         <v>13288.7</v>
@@ -5703,7 +5703,7 @@
         <v>7.6</v>
       </c>
       <c r="DI10" t="n">
-        <v>4377.5</v>
+        <v>4043.5</v>
       </c>
       <c r="DJ10" t="n">
         <v>54103.9</v>
@@ -5721,7 +5721,7 @@
         <v>1.5</v>
       </c>
       <c r="DO10" t="n">
-        <v>1653.700000000001</v>
+        <v>430.899999999999</v>
       </c>
       <c r="DP10" t="n">
         <v>19832.7</v>
@@ -5899,7 +5899,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>137.3000000000002</v>
+        <v>87.3000000000002</v>
       </c>
       <c r="I11" t="n">
         <v>2241.7</v>
@@ -5908,7 +5908,7 @@
         <v>7.7</v>
       </c>
       <c r="K11" t="n">
-        <v>1.199999999999999</v>
+        <v>0.1999999999999991</v>
       </c>
       <c r="L11" t="n">
         <v>36.6</v>
@@ -5962,7 +5962,7 @@
         <v>7.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>723.2999999999993</v>
+        <v>639.6999999999971</v>
       </c>
       <c r="AD11" t="n">
         <v>8328.1</v>
@@ -5980,7 +5980,7 @@
         <v>11.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>173.4000000000001</v>
+        <v>67.79999999999971</v>
       </c>
       <c r="AJ11" t="n">
         <v>3909.9</v>
@@ -5989,7 +5989,7 @@
         <v>17.4</v>
       </c>
       <c r="AL11" t="n">
-        <v>169</v>
+        <v>62.50000000000006</v>
       </c>
       <c r="AM11" t="n">
         <v>1318.5</v>
@@ -5998,7 +5998,7 @@
         <v>4.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>891.6999999999989</v>
+        <v>877.099999999999</v>
       </c>
       <c r="AP11" t="n">
         <v>15791.6</v>
@@ -6007,7 +6007,7 @@
         <v>8.4</v>
       </c>
       <c r="AR11" t="n">
-        <v>3225.5</v>
+        <v>257.0999999999999</v>
       </c>
       <c r="AS11" t="n">
         <v>53366.4</v>
@@ -6016,7 +6016,7 @@
         <v>15.9</v>
       </c>
       <c r="AU11" t="n">
-        <v>60.89999999999964</v>
+        <v>11.19999999999983</v>
       </c>
       <c r="AV11" t="n">
         <v>5401</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1010.099999999999</v>
+        <v>731.2999999999952</v>
       </c>
       <c r="AY11" t="n">
         <v>12988.5</v>
@@ -6034,7 +6034,7 @@
         <v>2.6</v>
       </c>
       <c r="BA11" t="n">
-        <v>2010.799999999999</v>
+        <v>1965.999999999975</v>
       </c>
       <c r="BB11" t="n">
         <v>30035.1</v>
@@ -6043,7 +6043,7 @@
         <v>7.9</v>
       </c>
       <c r="BD11" t="n">
-        <v>50.40000000000012</v>
+        <v>43.80000000000056</v>
       </c>
       <c r="BE11" t="n">
         <v>2241.8</v>
@@ -6052,7 +6052,7 @@
         <v>11.2</v>
       </c>
       <c r="BG11" t="n">
-        <v>538.099999999984</v>
+        <v>415.2999999999375</v>
       </c>
       <c r="BH11" t="n">
         <v>79275.2</v>
@@ -6070,7 +6070,7 @@
         <v>1.4</v>
       </c>
       <c r="BM11" t="n">
-        <v>2181.400000000001</v>
+        <v>46.90000000000373</v>
       </c>
       <c r="BN11" t="n">
         <v>25555.4</v>
@@ -6079,7 +6079,7 @@
         <v>28.3</v>
       </c>
       <c r="BP11" t="n">
-        <v>328.7000000000007</v>
+        <v>38.70000000000737</v>
       </c>
       <c r="BQ11" t="n">
         <v>5881.5</v>
@@ -6088,7 +6088,7 @@
         <v>14.6</v>
       </c>
       <c r="BS11" t="n">
-        <v>453.2000000000044</v>
+        <v>69.50000000001461</v>
       </c>
       <c r="BT11" t="n">
         <v>53040.2</v>
@@ -6097,7 +6097,7 @@
         <v>7.6</v>
       </c>
       <c r="BV11" t="n">
-        <v>4165.299999999996</v>
+        <v>50.39999999999509</v>
       </c>
       <c r="BW11" t="n">
         <v>70364.2</v>
@@ -6106,7 +6106,7 @@
         <v>12.1</v>
       </c>
       <c r="BY11" t="n">
-        <v>975.3999999999996</v>
+        <v>936.8999999999957</v>
       </c>
       <c r="BZ11" t="n">
         <v>13763.2</v>
@@ -6115,7 +6115,7 @@
         <v>3.9</v>
       </c>
       <c r="CB11" t="n">
-        <v>381.300000000002</v>
+        <v>322.1000000000012</v>
       </c>
       <c r="CC11" t="n">
         <v>38084.2</v>
@@ -6124,7 +6124,7 @@
         <v>25.5</v>
       </c>
       <c r="CE11" t="n">
-        <v>209.7000000000007</v>
+        <v>140.9000000000051</v>
       </c>
       <c r="CF11" t="n">
         <v>7005.7</v>
@@ -6133,7 +6133,7 @@
         <v>22.2</v>
       </c>
       <c r="CH11" t="n">
-        <v>2261.099999999999</v>
+        <v>57</v>
       </c>
       <c r="CI11" t="n">
         <v>36543.3</v>
@@ -6151,7 +6151,7 @@
         <v>1.9</v>
       </c>
       <c r="CN11" t="n">
-        <v>1275.600000000006</v>
+        <v>373.9999999999857</v>
       </c>
       <c r="CO11" t="n">
         <v>96768.89999999999</v>
@@ -6196,7 +6196,7 @@
         <v>0.3</v>
       </c>
       <c r="DC11" t="n">
-        <v>2648.900000000001</v>
+        <v>2516.499999999993</v>
       </c>
       <c r="DD11" t="n">
         <v>35170.1</v>
@@ -6205,7 +6205,7 @@
         <v>8</v>
       </c>
       <c r="DF11" t="n">
-        <v>555.8999999999996</v>
+        <v>116.3999999999996</v>
       </c>
       <c r="DG11" t="n">
         <v>13822</v>
